--- a/Milestone 1.xlsx
+++ b/Milestone 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seifhany/Downloads/Software Engineering/Milestone 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE1A230-4FB1-1A4B-8907-91737A71E5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48C43F-79AF-4245-B3AB-0BE48311BA00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="297">
   <si>
     <t>Team Name</t>
   </si>
@@ -635,9 +635,6 @@
     <t>I can get paid my money in a fast, and convenient way.</t>
   </si>
   <si>
-    <t>be able to view all the money transfered to my</t>
-  </si>
-  <si>
     <t>I can monitor, and manage my finances.</t>
   </si>
   <si>
@@ -915,6 +912,12 @@
   </si>
   <si>
     <t>6, 7, 39, 40, 42</t>
+  </si>
+  <si>
+    <t>be able to view all the money transfered to my accounts</t>
+  </si>
+  <si>
+    <t>34, 36, 37, 59, 62, 63, 85, 92, 93, 105</t>
   </si>
 </sst>
 </file>
@@ -2535,8 +2538,8 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="B45" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2705,7 +2708,7 @@
         <v>46</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="18">
         <v>6</v>
@@ -2729,7 +2732,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="18">
         <v>7</v>
@@ -3159,7 +3162,7 @@
         <v>91</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" s="18">
         <v>26</v>
@@ -3183,7 +3186,7 @@
         <v>91</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="18">
         <v>27</v>
@@ -3207,7 +3210,7 @@
         <v>91</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" s="18">
         <v>28</v>
@@ -3255,7 +3258,7 @@
         <v>91</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C32" s="18">
         <v>30</v>
@@ -3603,7 +3606,7 @@
         <v>91</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C47" s="18">
         <v>45</v>
@@ -3651,7 +3654,7 @@
         <v>91</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C49" s="18">
         <v>47</v>
@@ -3949,7 +3952,7 @@
         <v>47</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C62" s="18">
         <v>60</v>
@@ -4017,7 +4020,7 @@
         <v>47</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C65" s="18">
         <v>63</v>
@@ -4063,7 +4066,7 @@
         <v>47</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C67" s="18">
         <v>65</v>
@@ -4243,7 +4246,7 @@
         <v>47</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C75" s="18">
         <v>73</v>
@@ -4267,7 +4270,7 @@
         <v>47</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C76" s="18">
         <v>74</v>
@@ -4320,10 +4323,10 @@
         <v>36</v>
       </c>
       <c r="E78" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="F78" s="18" t="s">
         <v>202</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>203</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>45</v>
@@ -4342,10 +4345,10 @@
         <v>67</v>
       </c>
       <c r="E79" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" s="18" t="s">
         <v>204</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>205</v>
       </c>
       <c r="G79" s="19" t="s">
         <v>52</v>
@@ -4357,7 +4360,7 @@
         <v>35</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C80" s="18">
         <v>78</v>
@@ -4366,10 +4369,10 @@
         <v>36</v>
       </c>
       <c r="E80" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="F80" s="18" t="s">
         <v>207</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>208</v>
       </c>
       <c r="G80" s="19" t="s">
         <v>45</v>
@@ -4387,13 +4390,13 @@
         <v>79</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E81" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G81" s="19" t="s">
         <v>45</v>
@@ -4411,13 +4414,13 @@
         <v>80</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E82" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="18" t="s">
         <v>211</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>212</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>45</v>
@@ -4438,10 +4441,10 @@
         <v>36</v>
       </c>
       <c r="E83" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F83" s="18" t="s">
         <v>213</v>
-      </c>
-      <c r="F83" s="18" t="s">
-        <v>214</v>
       </c>
       <c r="G83" s="18" t="s">
         <v>72</v>
@@ -4462,10 +4465,10 @@
         <v>39</v>
       </c>
       <c r="E84" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F84" s="18" t="s">
         <v>215</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>216</v>
       </c>
       <c r="G84" s="19" t="s">
         <v>52</v>
@@ -4486,10 +4489,10 @@
         <v>36</v>
       </c>
       <c r="E85" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F85" s="18" t="s">
         <v>217</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>218</v>
       </c>
       <c r="G85" s="18" t="s">
         <v>72</v>
@@ -4510,10 +4513,10 @@
         <v>39</v>
       </c>
       <c r="E86" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F86" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="F86" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="G86" s="19" t="s">
         <v>52</v>
@@ -4534,10 +4537,10 @@
         <v>39</v>
       </c>
       <c r="E87" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F87" s="18" t="s">
         <v>221</v>
-      </c>
-      <c r="F87" s="18" t="s">
-        <v>222</v>
       </c>
       <c r="G87" s="19" t="s">
         <v>52</v>
@@ -4558,10 +4561,10 @@
         <v>39</v>
       </c>
       <c r="E88" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F88" s="18" t="s">
         <v>223</v>
-      </c>
-      <c r="F88" s="18" t="s">
-        <v>224</v>
       </c>
       <c r="G88" s="19" t="s">
         <v>52</v>
@@ -4582,10 +4585,10 @@
         <v>36</v>
       </c>
       <c r="E89" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F89" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="F89" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="G89" s="19" t="s">
         <v>45</v>
@@ -4597,7 +4600,7 @@
         <v>35</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C90" s="18">
         <v>88</v>
@@ -4606,10 +4609,10 @@
         <v>36</v>
       </c>
       <c r="E90" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="F90" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="F90" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="G90" s="19" t="s">
         <v>45</v>
@@ -4621,7 +4624,7 @@
         <v>35</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C91" s="18">
         <v>89</v>
@@ -4630,10 +4633,10 @@
         <v>36</v>
       </c>
       <c r="E91" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F91" s="18" t="s">
         <v>229</v>
-      </c>
-      <c r="F91" s="18" t="s">
-        <v>230</v>
       </c>
       <c r="G91" s="19" t="s">
         <v>45</v>
@@ -4717,7 +4720,7 @@
         <v>35</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C95" s="18">
         <v>93</v>
@@ -4726,10 +4729,10 @@
         <v>36</v>
       </c>
       <c r="E95" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F95" s="18" t="s">
         <v>231</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>232</v>
       </c>
       <c r="G95" s="19" t="s">
         <v>45</v>
@@ -4765,7 +4768,7 @@
         <v>35</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C97" s="18">
         <v>95</v>
@@ -4774,10 +4777,10 @@
         <v>36</v>
       </c>
       <c r="E97" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F97" s="18" t="s">
         <v>233</v>
-      </c>
-      <c r="F97" s="18" t="s">
-        <v>234</v>
       </c>
       <c r="G97" s="19" t="s">
         <v>45</v>
@@ -4789,7 +4792,7 @@
         <v>35</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C98" s="18">
         <v>96</v>
@@ -4798,10 +4801,10 @@
         <v>36</v>
       </c>
       <c r="E98" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F98" s="18" t="s">
         <v>235</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>236</v>
       </c>
       <c r="G98" s="18" t="s">
         <v>72</v>
@@ -4822,10 +4825,10 @@
         <v>36</v>
       </c>
       <c r="E99" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F99" s="18" t="s">
         <v>237</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>238</v>
       </c>
       <c r="G99" s="18" t="s">
         <v>72</v>
@@ -4846,10 +4849,10 @@
         <v>36</v>
       </c>
       <c r="E100" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F100" s="18" t="s">
         <v>239</v>
-      </c>
-      <c r="F100" s="18" t="s">
-        <v>240</v>
       </c>
       <c r="G100" s="19" t="s">
         <v>45</v>
@@ -4861,7 +4864,7 @@
         <v>35</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C101" s="18">
         <v>99</v>
@@ -4870,10 +4873,10 @@
         <v>36</v>
       </c>
       <c r="E101" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F101" s="18" t="s">
         <v>241</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>242</v>
       </c>
       <c r="G101" s="19" t="s">
         <v>45</v>
@@ -4885,7 +4888,7 @@
         <v>35</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C102" s="18">
         <v>100</v>
@@ -4894,10 +4897,10 @@
         <v>36</v>
       </c>
       <c r="E102" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F102" s="18" t="s">
         <v>243</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>244</v>
       </c>
       <c r="G102" s="19" t="s">
         <v>45</v>
@@ -4918,10 +4921,10 @@
         <v>36</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G103" s="19" t="s">
         <v>45</v>
@@ -4942,10 +4945,10 @@
         <v>36</v>
       </c>
       <c r="E104" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F104" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>247</v>
       </c>
       <c r="G104" s="18" t="s">
         <v>72</v>
@@ -4966,10 +4969,10 @@
         <v>36</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G105" s="19" t="s">
         <v>45</v>
@@ -4990,10 +4993,10 @@
         <v>137</v>
       </c>
       <c r="E106" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F106" s="18" t="s">
         <v>249</v>
-      </c>
-      <c r="F106" s="18" t="s">
-        <v>250</v>
       </c>
       <c r="G106" s="19" t="s">
         <v>52</v>
@@ -5005,7 +5008,7 @@
         <v>35</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C107" s="18">
         <v>105</v>
@@ -5014,10 +5017,10 @@
         <v>36</v>
       </c>
       <c r="E107" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F107" s="18" t="s">
         <v>251</v>
-      </c>
-      <c r="F107" s="18" t="s">
-        <v>252</v>
       </c>
       <c r="G107" s="19" t="s">
         <v>45</v>
@@ -5029,7 +5032,7 @@
         <v>35</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C108" s="18">
         <v>106</v>
@@ -5038,10 +5041,10 @@
         <v>67</v>
       </c>
       <c r="E108" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F108" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="G108" s="19" t="s">
         <v>52</v>
@@ -5062,10 +5065,10 @@
         <v>39</v>
       </c>
       <c r="E109" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F109" s="18" t="s">
         <v>255</v>
-      </c>
-      <c r="F109" s="18" t="s">
-        <v>256</v>
       </c>
       <c r="G109" s="19" t="s">
         <v>52</v>
@@ -5208,7 +5211,7 @@
   <dimension ref="A1:Z220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5270,10 +5273,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>265</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>266</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>45</v>
@@ -5305,13 +5308,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>268</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>269</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>45</v>
@@ -5343,19 +5346,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>271</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>272</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
@@ -5383,13 +5386,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>275</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>276</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>45</v>
@@ -5421,13 +5424,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>278</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>279</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>45</v>
@@ -5458,19 +5461,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="25" t="s">
         <v>281</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>282</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
@@ -5498,13 +5501,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="25" t="s">
         <v>284</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>285</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>45</v>
@@ -5536,13 +5539,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
         <v>287</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>288</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>45</v>
@@ -5574,18 +5577,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>290</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>291</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>296</v>
+      </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
@@ -5612,13 +5617,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="D11" s="25" t="s">
         <v>293</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>294</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>45</v>
